--- a/study/vucauk_port/data/testdata_user.xlsx
+++ b/study/vucauk_port/data/testdata_user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="5" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="getOrderDetailsDto" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="239">
   <si>
     <t>id</t>
   </si>
@@ -113,36 +113,14 @@
 "decimal":""}</t>
   </si>
   <si>
+    <t>javax.validation.constraints.NotNull.message</t>
+  </si>
+  <si>
     <t>{"transactionNumber":"",
 "decimal":"99.99"}</t>
   </si>
   <si>
-    <t>{"transactionNumber":"20210222000000018",
-"decimal":"99.99"}</t>
-  </si>
-  <si>
-    <t>{"transactionNumber":"方法",
-"decimal":"99.99"}</t>
-  </si>
-  <si>
-    <t>transactionNumber已支付</t>
-  </si>
-  <si>
-    <t>{"transactionNumber":"2021052515293400048",
-"decimal":"99"}</t>
-  </si>
-  <si>
     <t>decimal为空</t>
-  </si>
-  <si>
-    <t>decimal为-1</t>
-  </si>
-  <si>
-    <t>{"transactionNumber":"2021022200018",
-"decimal":"-1"}</t>
-  </si>
-  <si>
-    <t>{"code":"msg","message":"金额应在6位数以内，小数点不得超过2位","id":0}</t>
   </si>
   <si>
     <t>decimal为999999.999</t>
@@ -152,7 +130,13 @@
 "decimal":"9999999999999999"}</t>
   </si>
   <si>
-    <t>金额应在6位数以内，小数点不得超过2位</t>
+    <t>The amount should be no more than six digits with no more than two decimal places.</t>
+  </si>
+  <si>
+    <t>{"code":"msg","message":"The amount should be no more than six digits with no more than two decimal places.","id":0}</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
   <si>
     <t>decimal为1000000</t>
@@ -169,6 +153,9 @@
   </si>
   <si>
     <t>{"pageNum":"0"}</t>
+  </si>
+  <si>
+    <t>enterpriseId</t>
   </si>
   <si>
     <t>pageNum为空</t>
@@ -443,7 +430,7 @@
     <t>userorderIdentity类型错误</t>
   </si>
   <si>
-    <t>{"code":"msg","message":"参数绑定失败=userorderIdentity:Failed to convert property value of type 'java.lang.String' to required type 'int' for property 'userorderIdentity'; nested exception is java.lang.NumberFormatException: For input string: \"\",userorderIdentity类型错误","id":0}</t>
+    <t>{"code":"msg","message":"其它异常：null","id":0}</t>
   </si>
   <si>
     <t>userorderIdentity为-1</t>
@@ -468,7 +455,7 @@
 "certificateId": "14"}</t>
   </si>
   <si>
-    <t>{"code":"msg","message":"参数绑定失败=userorderIdentity:Failed to convert property value of type 'java.lang.String' to required type 'int' for property 'userorderIdentity'; nested exception is java.lang.NumberFormatException: For input string: \"0.99\",userorderIdentity类型错误","id":0}</t>
+    <t>{"code":"msg","message":"参数绑定失败=userorderIdentity:Failed to convert property value of type 'java.lang.String' to required type 'java.lang.Integer' for property 'userorderIdentity'; nested exception is java.lang.NumberFormatException: For input string: \"0.99\",userorderIdentity类型错误","id":0}</t>
   </si>
   <si>
     <t>userorderIdentity为2</t>
@@ -496,9 +483,6 @@
     <t>userorderSharesNumber类型错误</t>
   </si>
   <si>
-    <t>{"code":"msg","message":"参数绑定失败=userorderSharesNumber:Failed to convert property value of type 'java.lang.String' to required type 'double' for property 'userorderSharesNumber'; nested exception is java.lang.NumberFormatException: empty String,userorderSharesNumber类型错误","id":0}</t>
-  </si>
-  <si>
     <t>userorderSharesNumber为-1</t>
   </si>
   <si>
@@ -538,7 +522,7 @@
 "certificateId": "14"}</t>
   </si>
   <si>
-    <t>{"code":"msg","message":"参数绑定失败=userorderSharesNumber:Failed to convert property value of type 'java.lang.String' to required type 'double' for property 'userorderSharesNumber'; nested exception is java.lang.NumberFormatException: For input string: \"dd\",userorderSharesNumber类型错误","id":0}</t>
+    <t>{"code":"msg","message":"参数绑定失败=userorderSharesNumber:Failed to convert property value of type 'java.lang.String' to required type 'java.lang.Double' for property 'userorderSharesNumber'; nested exception is java.lang.NumberFormatException: For input string: \"dd\",userorderSharesNumber类型错误","id":0}</t>
   </si>
   <si>
     <t>intuserorderSharesPaid为空</t>
@@ -555,9 +539,6 @@
     <t>intuserorderSharesPaid类型错误</t>
   </si>
   <si>
-    <t>{"code":"msg","message":"参数绑定失败=intuserorderSharesPaid:Failed to convert property value of type 'java.lang.String' to required type 'double' for property 'intuserorderSharesPaid'; nested exception is java.lang.NumberFormatException: empty String,intuserorderSharesPaid类型错误","id":0}</t>
-  </si>
-  <si>
     <t>intuserorderSharesPaid为-1</t>
   </si>
   <si>
@@ -591,7 +572,7 @@
 "certificateId": "14"}</t>
   </si>
   <si>
-    <t>{"code":"msg","message":"参数绑定失败=intuserorderSharesPaid:Failed to convert property value of type 'java.lang.String' to required type 'double' for property 'intuserorderSharesPaid'; nested exception is java.lang.NumberFormatException: For input string: \"bb\",intuserorderSharesPaid类型错误","id":0}</t>
+    <t>{"code":"msg","message":"参数绑定失败=intuserorderSharesPaid:Failed to convert property value of type 'java.lang.String' to required type 'java.lang.Double' for property 'intuserorderSharesPaid'; nested exception is java.lang.NumberFormatException: For input string: \"bb\",intuserorderSharesPaid类型错误","id":0}</t>
   </si>
   <si>
     <t>userId为空</t>
@@ -849,7 +830,7 @@
     <t>userId不能为空</t>
   </si>
   <si>
-    <t>{"code":"msg","message":"userId不能为空","id":0}</t>
+    <t>{"code":"msg","message":"userId Can't be empty","id":0}</t>
   </si>
   <si>
     <t>userId为-1</t>
@@ -861,7 +842,7 @@
     <t>userId长度应在在0~99999999之间</t>
   </si>
   <si>
-    <t>{"code":"msg","message":"userId长度应在在0~99999999之间","id":0}</t>
+    <t>{"code":"msg","message":"Sorry, there is no relevant data in the database！","id":0}</t>
   </si>
   <si>
     <t>userId为9.99</t>
@@ -890,10 +871,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -910,68 +891,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -993,9 +922,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1009,15 +996,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1037,22 +1034,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1063,7 +1044,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,13 +1086,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,13 +1182,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,79 +1194,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,49 +1218,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1261,18 +1242,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1292,17 +1277,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1311,7 +1307,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1339,21 +1335,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1362,10 +1343,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1374,133 +1355,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1875,7 +1856,7 @@
     <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="43.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="43.5" style="1" customWidth="1"/>
-    <col min="16379" max="16384" width="9" customWidth="1"/>
+    <col min="16379" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" spans="1:8">
@@ -2069,22 +2050,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>14</v>
@@ -2095,25 +2076,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="1:8">
@@ -2121,25 +2102,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" ht="16.5" customHeight="1" spans="1:8">
@@ -2147,22 +2128,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -2173,22 +2154,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G6" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -2199,22 +2180,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -2237,13 +2218,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="25.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
@@ -2293,7 +2274,9 @@
       <c r="E2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
@@ -2311,7 +2294,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>17</v>
@@ -2323,12 +2306,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="33" customHeight="1" spans="1:5">
+    <row r="4" ht="33" customHeight="1" spans="1:6">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
@@ -2337,15 +2320,18 @@
         <v>27</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" ht="33" customHeight="1" spans="1:5">
+        <v>28</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" ht="33" customHeight="1" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -2354,15 +2340,24 @@
         <v>27</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" ht="33" customHeight="1" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" ht="33" customHeight="1" spans="1:6">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
@@ -2371,93 +2366,10 @@
         <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" ht="33" customHeight="1" spans="1:5">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" ht="33" customHeight="1" spans="1:8">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" ht="33" customHeight="1" spans="1:8">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" ht="33" customHeight="1" spans="1:6">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2467,10 +2379,6 @@
     <hyperlink ref="C4" r:id="rId1" display="/rdt/saveAccountBalanceInfo" tooltip="http://rdt.vucauk.com/rdt/saveAccountBalanceInfo"/>
     <hyperlink ref="C5" r:id="rId1" display="/rdt/saveAccountBalanceInfo" tooltip="http://rdt.vucauk.com/rdt/saveAccountBalanceInfo"/>
     <hyperlink ref="C6" r:id="rId1" display="/rdt/saveAccountBalanceInfo" tooltip="http://rdt.vucauk.com/rdt/saveAccountBalanceInfo"/>
-    <hyperlink ref="C7" r:id="rId1" display="/rdt/saveAccountBalanceInfo" tooltip="http://rdt.vucauk.com/rdt/saveAccountBalanceInfo"/>
-    <hyperlink ref="C8" r:id="rId1" display="/rdt/saveAccountBalanceInfo" tooltip="http://rdt.vucauk.com/rdt/saveAccountBalanceInfo"/>
-    <hyperlink ref="C9" r:id="rId1" display="/rdt/saveAccountBalanceInfo" tooltip="http://rdt.vucauk.com/rdt/saveAccountBalanceInfo"/>
-    <hyperlink ref="C10" r:id="rId1" display="/rdt/saveAccountBalanceInfo" tooltip="http://rdt.vucauk.com/rdt/saveAccountBalanceInfo"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2484,7 +2392,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -2526,18 +2434,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
@@ -2546,22 +2456,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -2572,22 +2482,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -2598,22 +2508,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -2624,22 +2534,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -2650,22 +2560,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -2734,22 +2644,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>14</v>
@@ -2760,22 +2670,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -2786,22 +2696,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -2812,22 +2722,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -2838,22 +2748,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -2864,22 +2774,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -2947,22 +2857,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>14</v>
@@ -2973,22 +2883,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -2999,22 +2909,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -3025,22 +2935,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -3051,22 +2961,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -3077,22 +2987,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -3115,13 +3025,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="23.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.5" style="1" customWidth="1"/>
@@ -3160,16 +3070,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="2"/>
@@ -3180,22 +3090,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -3206,22 +3116,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -3232,22 +3142,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -3258,22 +3168,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -3284,25 +3194,30 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:1">
+      <c r="A8" s="2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3324,7 +3239,7 @@
   <sheetPr/>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -3367,22 +3282,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>14</v>
@@ -3393,22 +3308,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -3419,22 +3334,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -3445,22 +3360,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -3471,22 +3386,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -3497,22 +3412,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -3523,25 +3438,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" ht="99" customHeight="1" spans="1:6">
@@ -3549,16 +3464,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -3567,22 +3482,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -3593,16 +3508,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -3611,25 +3526,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="99" customHeight="1" spans="1:6">
@@ -3637,16 +3552,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -3655,22 +3570,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -3681,22 +3596,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -3707,25 +3622,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" ht="99" customHeight="1" spans="1:6">
@@ -3733,16 +3648,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -3751,16 +3666,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -3769,22 +3684,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G19" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -3795,22 +3710,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -3821,22 +3736,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G21" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -3847,22 +3762,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G22" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -3873,22 +3788,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G23" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -3899,22 +3814,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G24" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
@@ -3925,22 +3840,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G25" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
@@ -4026,22 +3941,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>14</v>
@@ -4052,22 +3967,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -4078,22 +3993,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -4104,22 +4019,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -4130,22 +4045,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G6" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -4156,22 +4071,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -4239,22 +4154,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>14</v>
@@ -4265,22 +4180,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -4291,22 +4206,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -4317,22 +4232,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -4343,22 +4258,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G6" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -4369,22 +4284,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -4395,22 +4310,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -4421,22 +4336,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -4447,22 +4362,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -4473,22 +4388,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G11" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
